--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:M58"/>
+  <dimension ref="B2:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -451,6 +451,16 @@
           <t>06.11.2023</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>07.11.2023</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>08.11.2023</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
@@ -513,6 +523,26 @@
           <t>No Data</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Wetter Symbol</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Wetter Symbol</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>bwr2__.png</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -575,6 +605,26 @@
           <t>8,2</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Min. Tempearatur in °C</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Min. Tempearatur in °C</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>7,3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
@@ -637,6 +687,26 @@
           <t>11,4</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Max. Temperatur °C</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>9,8</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Max. Temperatur °C</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
@@ -694,6 +764,26 @@
           <t>0,2</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Niederschlagsmenge in l/m²</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Niederschlagsmenge in l/m²</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>10,7</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -744,6 +834,22 @@
       <c r="M7" t="n">
         <v>143</v>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Alexianergraben Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>181</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Alexianergraben Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
@@ -794,6 +900,22 @@
       <c r="M8" t="n">
         <v>52</v>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Alexianergraben Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>33</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Alexianergraben Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
@@ -844,6 +966,22 @@
       <c r="M9" t="n">
         <v>330</v>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Altstraße Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>301</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Altstraße Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
@@ -894,6 +1032,22 @@
       <c r="M10" t="n">
         <v>292</v>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Altstraße Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>268</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Altstraße Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
@@ -944,6 +1098,22 @@
       <c r="M11" t="n">
         <v>844</v>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Bismarckstraße Rad Richtung Innenstadt:</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>723</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Bismarckstraße Rad Richtung Innenstadt:</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>723</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
@@ -994,6 +1164,22 @@
       <c r="M12" t="n">
         <v>976</v>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Bismarckstraße Rad aus Innenstadt:</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>885</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Bismarckstraße Rad aus Innenstadt:</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>885</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
@@ -1044,6 +1230,22 @@
       <c r="M13" t="n">
         <v>556</v>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Driescher Gässchen Radfahrer Richtung Hirschgraben:</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>446</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Driescher Gässchen Radfahrer Richtung Hirschgraben:</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>446</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
@@ -1094,6 +1296,22 @@
       <c r="M14" t="n">
         <v>688</v>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Eilfschornsteinstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>773</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Eilfschornsteinstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>773</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
@@ -1144,6 +1362,22 @@
       <c r="M15" t="n">
         <v>597</v>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Eilfschornsteinstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>672</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Eilfschornsteinstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>672</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -1194,6 +1428,22 @@
       <c r="M16" t="n">
         <v>365</v>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Hirschgraben Radfahrer Richtung Driescher Gässchen:</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>387</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Hirschgraben Radfahrer Richtung Driescher Gässchen:</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
@@ -1244,6 +1494,22 @@
       <c r="M17" t="n">
         <v>320</v>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Hirschgraben Radfahrer Richtung Pontdriesch:</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>393</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Hirschgraben Radfahrer Richtung Pontdriesch:</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
@@ -1294,6 +1560,22 @@
       <c r="M18" t="n">
         <v>181</v>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee (Richt. Lütticher Str.) Radfahrer Richtung Lütticher Str:</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>192</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee (Richt. Lütticher Str.) Radfahrer Richtung Lütticher Str:</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
@@ -1344,6 +1626,22 @@
       <c r="M19" t="n">
         <v>24</v>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee (Richt. Lütticher Str.) Radfahrer Richtung Mozartstraße (Falschfahrer):</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>13</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee (Richt. Lütticher Str.) Radfahrer Richtung Mozartstraße (Falschfahrer):</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
@@ -1394,6 +1692,22 @@
       <c r="M20" t="n">
         <v>25</v>
       </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee Richt. Mozartstraße Radfahrer Richtung Mozartstraße:</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>25</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee Richt. Mozartstraße Radfahrer Richtung Mozartstraße:</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
@@ -1444,6 +1758,22 @@
       <c r="M21" t="n">
         <v>157</v>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee Richt. Mozartstraße Radfahrer Richtung B264 (Falschfahrer):</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>139</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee Richt. Mozartstraße Radfahrer Richtung B264 (Falschfahrer):</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
@@ -1494,6 +1824,22 @@
       <c r="M22" t="n">
         <v>310</v>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Junkerstraße äder Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>349</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Junkerstraße äder Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
@@ -1544,6 +1890,22 @@
       <c r="M23" t="n">
         <v>141</v>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Kleebachstraße äder Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>153</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Kleebachstraße äder Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
@@ -1594,6 +1956,22 @@
       <c r="M24" t="n">
         <v>147</v>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Kleebachstraße äder Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>161</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Kleebachstraße äder Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
@@ -1644,6 +2022,22 @@
       <c r="M25" t="n">
         <v>435</v>
       </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Königstraße Rad Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>398</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Königstraße Rad Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
@@ -1694,6 +2088,22 @@
       <c r="M26" t="n">
         <v>432</v>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Königstraße Rad Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>394</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Königstraße Rad Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
@@ -1744,6 +2154,22 @@
       <c r="M27" t="n">
         <v>90</v>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Kopernikusstraße / Seffenter Weg Rad in Kopernikusstraße:</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>111</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Kopernikusstraße / Seffenter Weg Rad in Kopernikusstraße:</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
@@ -1794,6 +2220,22 @@
       <c r="M28" t="n">
         <v>53</v>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Kopernikusstraße / Seffenter Weg Rad aus Kopernikusstraße:</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>59</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Kopernikusstraße / Seffenter Weg Rad aus Kopernikusstraße:</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
@@ -1844,6 +2286,22 @@
       <c r="M29" t="n">
         <v>648</v>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lochnerstraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>631</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Lochnerstraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>631</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
@@ -1894,6 +2352,22 @@
       <c r="M30" t="n">
         <v>575</v>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lochnerstraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>576</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Lochnerstraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>576</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
@@ -1944,6 +2418,22 @@
       <c r="M31" t="n">
         <v>554</v>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lothringerstraße Rad Richtung Innenstadt:</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>608</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Lothringerstraße Rad Richtung Innenstadt:</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
@@ -1994,6 +2484,22 @@
       <c r="M32" t="n">
         <v>537</v>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lothringerstraße Rad aus Innenstadt:</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>578</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Lothringerstraße Rad aus Innenstadt:</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>578</v>
+      </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
@@ -2044,6 +2550,22 @@
       <c r="M33" t="n">
         <v>90</v>
       </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Marienstraße/ Von-Coels-Straße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>92</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Marienstraße/ Von-Coels-Straße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
@@ -2094,6 +2616,22 @@
       <c r="M34" t="n">
         <v>115</v>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Marienstraße/ Von-Coels-Straße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>97</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Marienstraße/ Von-Coels-Straße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
@@ -2144,6 +2682,22 @@
       <c r="M35" t="n">
         <v>364</v>
       </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Melatener Brücke Rad Ri. Campus:</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>336</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Melatener Brücke Rad Ri. Campus:</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
@@ -2194,6 +2748,22 @@
       <c r="M36" t="n">
         <v>196</v>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Melatener Brücke Rad von Campus:</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>213</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Melatener Brücke Rad von Campus:</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
@@ -2244,6 +2814,22 @@
       <c r="M37" t="n">
         <v>572</v>
       </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Pontstraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>590</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Pontstraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>590</v>
+      </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
@@ -2294,6 +2880,22 @@
       <c r="M38" t="n">
         <v>322</v>
       </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Pontstraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>318</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Pontstraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
@@ -2344,6 +2946,22 @@
       <c r="M39" t="n">
         <v>82</v>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Rombachstraße (Ecke Vennbahnweg) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>75</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Rombachstraße (Ecke Vennbahnweg) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
@@ -2394,6 +3012,22 @@
       <c r="M40" t="n">
         <v>190</v>
       </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Rombachstraße (Ecke Vennbahnweg) Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>159</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Rombachstraße (Ecke Vennbahnweg) Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
@@ -2444,6 +3078,22 @@
       <c r="M41" t="n">
         <v>315</v>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Sandkaulenstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>307</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Sandkaulenstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>307</v>
+      </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
@@ -2494,6 +3144,22 @@
       <c r="M42" t="n">
         <v>299</v>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Sandkaulenstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>271</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Sandkaulenstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>271</v>
+      </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
@@ -2544,6 +3210,22 @@
       <c r="M43" t="n">
         <v>1003</v>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Schinkelstraße Rad Ri. Innenstadt:</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>1060</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Schinkelstraße Rad Ri. Innenstadt:</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1060</v>
+      </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
@@ -2594,6 +3276,22 @@
       <c r="M44" t="n">
         <v>1157</v>
       </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Schinkelstraße Rad Ri. Westbahnhof:</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>1400</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Schinkelstraße Rad Ri. Westbahnhof:</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1400</v>
+      </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
@@ -2644,6 +3342,22 @@
       <c r="M45" t="n">
         <v>211</v>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Schopenhauer / Sittarder Straße Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>170</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Schopenhauer / Sittarder Straße Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
@@ -2694,6 +3408,22 @@
       <c r="M46" t="n">
         <v>163</v>
       </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Schopenhauer / Sittarder Straße Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>143</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Schopenhauer / Sittarder Straße Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
@@ -2744,6 +3474,22 @@
       <c r="M47" t="n">
         <v>1521</v>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Templergraben Radfahrer Richtung Nord-Ost:</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>1546</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Templergraben Radfahrer Richtung Nord-Ost:</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1546</v>
+      </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
@@ -2794,6 +3540,22 @@
       <c r="M48" t="n">
         <v>1607</v>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Templergraben Radfahrer Richtung Süd-West:</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>1526</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Templergraben Radfahrer Richtung Süd-West:</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1526</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
@@ -2844,6 +3606,22 @@
       <c r="M49" t="n">
         <v>341</v>
       </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Vennbahn (Ecke Rombachstraße) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>280</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Vennbahn (Ecke Rombachstraße) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
@@ -2894,6 +3672,22 @@
       <c r="M50" t="n">
         <v>301</v>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Vennbahn (Ecke Rombachstraße) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>235</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Vennbahn (Ecke Rombachstraße) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
@@ -2944,6 +3738,22 @@
       <c r="M51" t="n">
         <v>667</v>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Vennbahntrasse (Ecke Philipsstraße) Rad Ri. Eilendorf:</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>651</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Vennbahntrasse (Ecke Philipsstraße) Rad Ri. Eilendorf:</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>651</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
@@ -2994,6 +3804,22 @@
       <c r="M52" t="n">
         <v>686</v>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Vennbahntrasse (Ecke Philipsstraße) Rad Ri. Innenstadt:</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>670</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Vennbahntrasse (Ecke Philipsstraße) Rad Ri. Innenstadt:</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>670</v>
+      </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
@@ -3044,6 +3870,22 @@
       <c r="M53" t="n">
         <v>489</v>
       </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Weststraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>428</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Weststraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>428</v>
+      </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
@@ -3094,6 +3936,22 @@
       <c r="M54" t="n">
         <v>351</v>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Weststraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>279</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Weststraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
@@ -3144,6 +4002,22 @@
       <c r="M55" t="n">
         <v>660</v>
       </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Wirichsbongardstraße Rad Ri. Elisenbrunnen:</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>629</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Wirichsbongardstraße Rad Ri. Elisenbrunnen:</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>629</v>
+      </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
@@ -3194,6 +4068,22 @@
       <c r="M56" t="n">
         <v>533</v>
       </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Wirichsbongardstraße Rad von Elisenbrunnen:</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>550</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Wirichsbongardstraße Rad von Elisenbrunnen:</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>550</v>
+      </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
@@ -3244,6 +4134,22 @@
       <c r="M57" t="n">
         <v>1554</v>
       </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Wüllnerstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>1365</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Wüllnerstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1365</v>
+      </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
@@ -3293,6 +4199,22 @@
       </c>
       <c r="M58" t="n">
         <v>1747</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Wüllnerstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>1576</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Wüllnerstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>1576</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>885</v>
+        <v>940</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>446</v>
+        <v>558</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>773</v>
+        <v>740</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>672</v>
+        <v>629</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>631</v>
+        <v>700</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>608</v>
+        <v>697</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>307</v>
+        <v>402</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>1060</v>
+        <v>961</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>1400</v>
+        <v>1108</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>1546</v>
+        <v>1750</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>1526</v>
+        <v>1794</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>651</v>
+        <v>696</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>670</v>
+        <v>742</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>629</v>
+        <v>728</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>1365</v>
+        <v>1347</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>1576</v>
+        <v>1605</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:Q58"/>
+  <dimension ref="B2:U58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -461,6 +461,16 @@
           <t>08.11.2023</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>09.11.2023</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10.11.2023</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
@@ -543,6 +553,26 @@
           <t>bwr2__.png</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Wetter Symbol</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Wetter Symbol</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>bws1__.png</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -625,6 +655,26 @@
           <t>7,3</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Min. Tempearatur in °C</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Min. Tempearatur in °C</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>5,1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
@@ -707,6 +757,26 @@
           <t>10</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Max. Temperatur °C</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>10,3</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Max. Temperatur °C</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>8,1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
@@ -784,6 +854,26 @@
           <t>10,7</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Niederschlagsmenge in l/m²</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>6,7</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Niederschlagsmenge in l/m²</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>6,6</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -850,6 +940,22 @@
       <c r="Q7" t="n">
         <v>181</v>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Alexianergraben Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>154</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Alexianergraben Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
@@ -916,6 +1022,22 @@
       <c r="Q8" t="n">
         <v>33</v>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Alexianergraben Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>48</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Alexianergraben Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
@@ -982,6 +1104,22 @@
       <c r="Q9" t="n">
         <v>301</v>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Altstraße Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>218</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Altstraße Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
@@ -1048,6 +1186,22 @@
       <c r="Q10" t="n">
         <v>268</v>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Altstraße Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>191</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Altstraße Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
@@ -1114,6 +1268,22 @@
       <c r="Q11" t="n">
         <v>723</v>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Bismarckstraße Rad Richtung Innenstadt:</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>609</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Bismarckstraße Rad Richtung Innenstadt:</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>648</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
@@ -1180,6 +1350,22 @@
       <c r="Q12" t="n">
         <v>885</v>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Bismarckstraße Rad aus Innenstadt:</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>809</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Bismarckstraße Rad aus Innenstadt:</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
@@ -1246,6 +1432,22 @@
       <c r="Q13" t="n">
         <v>446</v>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Driescher Gässchen Radfahrer Richtung Hirschgraben:</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>437</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Driescher Gässchen Radfahrer Richtung Hirschgraben:</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
@@ -1312,6 +1514,22 @@
       <c r="Q14" t="n">
         <v>773</v>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Eilfschornsteinstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>608</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Eilfschornsteinstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>548</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
@@ -1378,6 +1596,22 @@
       <c r="Q15" t="n">
         <v>672</v>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Eilfschornsteinstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>528</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Eilfschornsteinstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>464</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -1444,6 +1678,22 @@
       <c r="Q16" t="n">
         <v>387</v>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Hirschgraben Radfahrer Richtung Driescher Gässchen:</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>352</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Hirschgraben Radfahrer Richtung Driescher Gässchen:</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
@@ -1510,6 +1760,22 @@
       <c r="Q17" t="n">
         <v>393</v>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Hirschgraben Radfahrer Richtung Pontdriesch:</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>368</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Hirschgraben Radfahrer Richtung Pontdriesch:</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
@@ -1576,6 +1842,22 @@
       <c r="Q18" t="n">
         <v>192</v>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee (Richt. Lütticher Str.) Radfahrer Richtung Lütticher Str:</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>153</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee (Richt. Lütticher Str.) Radfahrer Richtung Lütticher Str:</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
@@ -1642,6 +1924,22 @@
       <c r="Q19" t="n">
         <v>13</v>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee (Richt. Lütticher Str.) Radfahrer Richtung Mozartstraße (Falschfahrer):</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>12</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee (Richt. Lütticher Str.) Radfahrer Richtung Mozartstraße (Falschfahrer):</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
@@ -1708,6 +2006,22 @@
       <c r="Q20" t="n">
         <v>25</v>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee Richt. Mozartstraße Radfahrer Richtung Mozartstraße:</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>17</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee Richt. Mozartstraße Radfahrer Richtung Mozartstraße:</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
@@ -1774,6 +2088,22 @@
       <c r="Q21" t="n">
         <v>139</v>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee Richt. Mozartstraße Radfahrer Richtung B264 (Falschfahrer):</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>117</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Hohenstaufenallee Richt. Mozartstraße Radfahrer Richtung B264 (Falschfahrer):</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
@@ -1840,6 +2170,22 @@
       <c r="Q22" t="n">
         <v>349</v>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Junkerstraße äder Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>389</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Junkerstraße äder Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
@@ -1906,6 +2252,22 @@
       <c r="Q23" t="n">
         <v>153</v>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Kleebachstraße äder Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>117</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Kleebachstraße äder Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
@@ -1972,6 +2334,22 @@
       <c r="Q24" t="n">
         <v>161</v>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Kleebachstraße äder Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>119</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Kleebachstraße äder Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
@@ -2038,6 +2416,22 @@
       <c r="Q25" t="n">
         <v>398</v>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Königstraße Rad Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>383</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Königstraße Rad Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
@@ -2104,6 +2498,22 @@
       <c r="Q26" t="n">
         <v>394</v>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Königstraße Rad Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>387</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Königstraße Rad Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
@@ -2170,6 +2580,22 @@
       <c r="Q27" t="n">
         <v>111</v>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Kopernikusstraße / Seffenter Weg Rad in Kopernikusstraße:</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>100</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Kopernikusstraße / Seffenter Weg Rad in Kopernikusstraße:</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
@@ -2236,6 +2662,22 @@
       <c r="Q28" t="n">
         <v>59</v>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Kopernikusstraße / Seffenter Weg Rad aus Kopernikusstraße:</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>67</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Kopernikusstraße / Seffenter Weg Rad aus Kopernikusstraße:</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
@@ -2302,6 +2744,22 @@
       <c r="Q29" t="n">
         <v>631</v>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Lochnerstraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>539</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Lochnerstraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>486</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
@@ -2368,6 +2826,22 @@
       <c r="Q30" t="n">
         <v>576</v>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Lochnerstraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>490</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Lochnerstraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>456</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
@@ -2434,6 +2908,22 @@
       <c r="Q31" t="n">
         <v>608</v>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Lothringerstraße Rad Richtung Innenstadt:</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>645</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Lothringerstraße Rad Richtung Innenstadt:</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>465</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
@@ -2500,6 +2990,22 @@
       <c r="Q32" t="n">
         <v>578</v>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Lothringerstraße Rad aus Innenstadt:</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>523</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Lothringerstraße Rad aus Innenstadt:</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>445</v>
+      </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
@@ -2566,6 +3072,22 @@
       <c r="Q33" t="n">
         <v>92</v>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Marienstraße/ Von-Coels-Straße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>70</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Marienstraße/ Von-Coels-Straße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
@@ -2632,6 +3154,22 @@
       <c r="Q34" t="n">
         <v>97</v>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Marienstraße/ Von-Coels-Straße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>66</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Marienstraße/ Von-Coels-Straße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
@@ -2698,6 +3236,22 @@
       <c r="Q35" t="n">
         <v>336</v>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Melatener Brücke Rad Ri. Campus:</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>292</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Melatener Brücke Rad Ri. Campus:</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
@@ -2764,6 +3318,22 @@
       <c r="Q36" t="n">
         <v>213</v>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Melatener Brücke Rad von Campus:</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>182</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Melatener Brücke Rad von Campus:</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
@@ -2830,6 +3400,22 @@
       <c r="Q37" t="n">
         <v>590</v>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Pontstraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>485</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Pontstraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>489</v>
+      </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
@@ -2896,6 +3482,22 @@
       <c r="Q38" t="n">
         <v>318</v>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Pontstraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>339</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Pontstraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>356</v>
+      </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
@@ -2962,6 +3564,22 @@
       <c r="Q39" t="n">
         <v>75</v>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Rombachstraße (Ecke Vennbahnweg) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>101</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rombachstraße (Ecke Vennbahnweg) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
@@ -3028,6 +3646,22 @@
       <c r="Q40" t="n">
         <v>159</v>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Rombachstraße (Ecke Vennbahnweg) Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>138</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Rombachstraße (Ecke Vennbahnweg) Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
@@ -3094,6 +3728,22 @@
       <c r="Q41" t="n">
         <v>307</v>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Sandkaulenstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>324</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Sandkaulenstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
@@ -3160,6 +3810,22 @@
       <c r="Q42" t="n">
         <v>271</v>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Sandkaulenstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>305</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Sandkaulenstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
@@ -3226,6 +3892,22 @@
       <c r="Q43" t="n">
         <v>1060</v>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Schinkelstraße Rad Ri. Innenstadt:</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
+        <v>818</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Schinkelstraße Rad Ri. Innenstadt:</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>733</v>
+      </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
@@ -3292,6 +3974,22 @@
       <c r="Q44" t="n">
         <v>1400</v>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Schinkelstraße Rad Ri. Westbahnhof:</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>953</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Schinkelstraße Rad Ri. Westbahnhof:</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>839</v>
+      </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
@@ -3358,6 +4056,22 @@
       <c r="Q45" t="n">
         <v>170</v>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Schopenhauer / Sittarder Straße Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
+        <v>116</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Schopenhauer / Sittarder Straße Radfahrer Richtung Südosten:</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
@@ -3424,6 +4138,22 @@
       <c r="Q46" t="n">
         <v>143</v>
       </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Schopenhauer / Sittarder Straße Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
+        <v>86</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Schopenhauer / Sittarder Straße Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
@@ -3490,6 +4220,22 @@
       <c r="Q47" t="n">
         <v>1546</v>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Templergraben Radfahrer Richtung Nord-Ost:</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>1349</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Templergraben Radfahrer Richtung Nord-Ost:</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1321</v>
+      </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
@@ -3556,6 +4302,22 @@
       <c r="Q48" t="n">
         <v>1526</v>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Templergraben Radfahrer Richtung Süd-West:</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>1387</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Templergraben Radfahrer Richtung Süd-West:</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1286</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
@@ -3622,6 +4384,22 @@
       <c r="Q49" t="n">
         <v>280</v>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Vennbahn (Ecke Rombachstraße) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
+        <v>223</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Vennbahn (Ecke Rombachstraße) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
@@ -3688,6 +4466,22 @@
       <c r="Q50" t="n">
         <v>235</v>
       </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Vennbahn (Ecke Rombachstraße) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
+        <v>187</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Vennbahn (Ecke Rombachstraße) Radfahrer Richtung Nordwesten:</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
@@ -3754,6 +4548,22 @@
       <c r="Q51" t="n">
         <v>651</v>
       </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Vennbahntrasse (Ecke Philipsstraße) Rad Ri. Eilendorf:</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
+        <v>489</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Vennbahntrasse (Ecke Philipsstraße) Rad Ri. Eilendorf:</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>478</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
@@ -3820,6 +4630,22 @@
       <c r="Q52" t="n">
         <v>670</v>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Vennbahntrasse (Ecke Philipsstraße) Rad Ri. Innenstadt:</t>
+        </is>
+      </c>
+      <c r="S52" t="n">
+        <v>518</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Vennbahntrasse (Ecke Philipsstraße) Rad Ri. Innenstadt:</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>510</v>
+      </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
@@ -3886,6 +4712,22 @@
       <c r="Q53" t="n">
         <v>428</v>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Weststraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
+        <v>367</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Weststraße Radfahrer Richtung Osten:</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
@@ -3952,6 +4794,22 @@
       <c r="Q54" t="n">
         <v>279</v>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Weststraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="S54" t="n">
+        <v>240</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Weststraße Radfahrer Richtung Westen:</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
@@ -4018,6 +4876,22 @@
       <c r="Q55" t="n">
         <v>629</v>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Wirichsbongardstraße Rad Ri. Elisenbrunnen:</t>
+        </is>
+      </c>
+      <c r="S55" t="n">
+        <v>523</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Wirichsbongardstraße Rad Ri. Elisenbrunnen:</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>478</v>
+      </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
@@ -4084,6 +4958,22 @@
       <c r="Q56" t="n">
         <v>550</v>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Wirichsbongardstraße Rad von Elisenbrunnen:</t>
+        </is>
+      </c>
+      <c r="S56" t="n">
+        <v>419</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Wirichsbongardstraße Rad von Elisenbrunnen:</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>430</v>
+      </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
@@ -4150,6 +5040,22 @@
       <c r="Q57" t="n">
         <v>1365</v>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Wüllnerstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
+        <v>1228</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Wüllnerstraße Radfahrer Richtung Süden:</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>963</v>
+      </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
@@ -4215,6 +5121,22 @@
       </c>
       <c r="Q58" t="n">
         <v>1576</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Wüllnerstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="S58" t="n">
+        <v>1403</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Wüllnerstraße Radfahrer Richtung Norden:</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
